--- a/biology/Médecine/Daniel_Mögling/Daniel_Mögling.xlsx
+++ b/biology/Médecine/Daniel_Mögling/Daniel_Mögling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_M%C3%B6gling</t>
+          <t>Daniel_Mögling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Mögling (1596 à Böblingen - 1635 à Butzbach) est un médecin et astronome allemand.Il est issu d'une illustre famille de docteurs wurtembergeois qui, au début du XVIe siècle, exercèrent à l'Université de Tübingen. Il fut un des partisans des idées Rose-Croix.
 Entre 1614 et 1617 paraissent les manifestes Rosicruciens de la FAMA et de la CONFESSIO ; il s’agissait d’un appel à tous ceux qui désiraient postuler à l’initiation conférée par l’Ordre de la Rose-Croix. Ces écrits suscitèrent d’abord de l’étonnement, puis de véritables attaques venant de quelques calomniateurs, peu nombreux il est vrai, mais très virulents..
-En 1617, c'est sous le pseudonyme de "Florentinus de Valentia" qu'il rédige Jhesus Nobis Omnia Rosa Florescens[1]. Cet ouvrage est une réponse aux critiques de Menapius (Friedrich Grick). Mögling y défend la Fraternité de la Rose-Croix, ainsi que les membres de l'ordre. Puis, toujours en 1617, " Pandora ou le miroir de la grâce" qu'il considèrera comme le préliminaire de l'ouvrage suivant publié en 1618, sous le pseudonyme de « Theophilus Schweighardt Constantiensem », "Speculum Sophicum Rhodostauroticum (Miroir de la sagesse des rose-croix). en 1620 Il poursuit son projet de description des travaux de l'Ordre de la Rose-Croix dans "prodromus rhodo-stauroticus parergi philosophici,"[2] qui traite de la pierre philosophale.
-Une traduction française en existe à la Bibliothèque nationale de France, dans le manuscrit français 17154 (première moitié du XVIIe siècle[3]).
+En 1617, c'est sous le pseudonyme de "Florentinus de Valentia" qu'il rédige Jhesus Nobis Omnia Rosa Florescens. Cet ouvrage est une réponse aux critiques de Menapius (Friedrich Grick). Mögling y défend la Fraternité de la Rose-Croix, ainsi que les membres de l'ordre. Puis, toujours en 1617, " Pandora ou le miroir de la grâce" qu'il considèrera comme le préliminaire de l'ouvrage suivant publié en 1618, sous le pseudonyme de « Theophilus Schweighardt Constantiensem », "Speculum Sophicum Rhodostauroticum (Miroir de la sagesse des rose-croix). en 1620 Il poursuit son projet de description des travaux de l'Ordre de la Rose-Croix dans "prodromus rhodo-stauroticus parergi philosophici," qui traite de la pierre philosophale.
+Une traduction française en existe à la Bibliothèque nationale de France, dans le manuscrit français 17154 (première moitié du XVIIe siècle).
 </t>
         </is>
       </c>
